--- a/pubs/list.xlsx
+++ b/pubs/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/eirik_starheim_svendsen_sintef_no/Documents/pythonScripts/quarto/mrth/maritimehub.github.io/pubs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C4186ACD-BF79-4A81-8B51-E10995A2158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC7DC1A4-9995-4645-BF52-AC494756146B}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{C4186ACD-BF79-4A81-8B51-E10995A2158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B81E2E-F905-4AE2-89B6-53B4A4D77AED}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{274D0BA0-DC91-428F-908B-39A5928B2966}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>FORMAT</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Andrea Viken Strand, Maitri Thakur, Kristina Norne Widell, Cecilia Gabrielli</t>
   </si>
   <si>
-    <t>Conference paper</t>
-  </si>
-  <si>
     <t>Book chapter</t>
   </si>
   <si>
@@ -118,18 +115,12 @@
     <t>Muhammad Zahid Saeed</t>
   </si>
   <si>
-    <t>Master Thesis Muhammad Zahid Saeed</t>
-  </si>
-  <si>
     <t>Energy efficient CO2 refrigeration units for fishing vessels</t>
   </si>
   <si>
     <t>Pavel Semaev</t>
   </si>
   <si>
-    <t>Master Thesis Pavel Semaev</t>
-  </si>
-  <si>
     <t>Implementation of natural refrigerants on cruise ships. A review of rules and regulations from two Classification Societies</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>Ángel Á. PARDIÑAS, Håkon SELVNES, Cecilia GABRIELII, Muhammad Zahid SAEED</t>
   </si>
   <si>
-    <t>Gustav Lorentzen Paper</t>
-  </si>
-  <si>
     <t>CO2 refrigeration system design and optimization for LNG driven cruise ships</t>
   </si>
   <si>
@@ -163,18 +151,12 @@
     <t>Muhammad Zahid SAEED , Armin HAFNER , Cecilia GABRIELII, Ignat TOLSTOREBROV, Kristina N. WIDELL</t>
   </si>
   <si>
-    <t>Ohrid Paper</t>
-  </si>
-  <si>
     <t>Thermal energy recovery and storage for a hydrogen fuel cell and battery driven cruise ship</t>
   </si>
   <si>
     <t>Vanja Revold Olberg</t>
   </si>
   <si>
-    <t>Master Thesis Vanja Olberg</t>
-  </si>
-  <si>
     <t>Design and Evaluation of CO2 based integrated heating and cooling systems for zero emission cruise ships</t>
   </si>
   <si>
@@ -190,27 +172,18 @@
     <t>Henrik Andersen</t>
   </si>
   <si>
-    <t>Master Thesis Henrik Andersen</t>
-  </si>
-  <si>
     <t>Integrated thermal system for hydrogen and ammonia driven cruise ship</t>
   </si>
   <si>
     <t>Magnus Egerdahl</t>
   </si>
   <si>
-    <t>Master Thesis Magnus Egerdahl</t>
-  </si>
-  <si>
     <t>Energy Use and Energy Efficiency Potential on Passenger Ships</t>
   </si>
   <si>
     <t>August Brækken</t>
   </si>
   <si>
-    <t>Master Thesis August Brækken</t>
-  </si>
-  <si>
     <t>Industry practices for sharing information in the Norwegian fisheries supply chains</t>
   </si>
   <si>
@@ -218,6 +191,117 @@
   </si>
   <si>
     <t>Armin Hafner, Cecilia Gabrielii, Kristina Widell</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/globalassets/sintef-ocean/coolfish/publications/2022_r_strand.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/contentassets/10328d1816b245298ef9f111b860a6a8/coolfish-report-carbon_footprint-signed.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/contentassets/f18e738f011347999884e200f817b956/coolfish-report-propulsion_and_fuels-signed.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/globalassets/sintef-ocean/coolfish/coolfish-fishing-vessel-report-10-sep---signed.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/globalassets/sintef-ocean/coolfish/publications/2022_cp_strand.pdf</t>
+  </si>
+  <si>
+    <t>http://norden.diva-portal.org/smash/record.jsf?pid=diva2%3A1301641&amp;dswid=6920</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/contentassets/5f6b1301f5fa49689bb3863663ccb79c/zahid_master_thesis_ntnu.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sintef.no/globalassets/sintef-ocean/coolfish/publications/2021_mt_semaev.pdf</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/3054806</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/3059223</t>
+  </si>
+  <si>
+    <t>https://sintef.brage.unit.no/sintef-xmlui/bitstream/handle/11250/3029915/Pardinas2022irc_AAM.pdf?sequence=1</t>
+  </si>
+  <si>
+    <t>https://sintef.brage.unit.no/sintef-xmlui/bitstream/handle/11250/3007172/Draft%2bpaper_ohrid.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/3028968</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/3024768</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/3025719</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/2787909</t>
+  </si>
+  <si>
+    <t>https://hdl.handle.net/11250/2779966</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Sustainability and traceability of food products have received increased attention due to food safety, consumer demand on knowledge of the origin of their food and reducing food fraud. Most Norwegian fishing vessels capture detailed data on the catch and quality of fish electronically. This information is automatically reported to the authorities while most information regarding the quality and sustainability is not communicated further down the supply chain. Significant data gaps include information on fuel and energy consumption, as well as detailed data on the transport routes and modes used.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>Report-Industry-practices-for-sharing-information-in-the-Norwegian-fisheries-supply-chain-722x1024.jpg</t>
+  </si>
+  <si>
+    <t>Report-Refrigeration-units-in-marine-vessels-765x1024.jpg</t>
+  </si>
+  <si>
+    <t>Report-Carbon-footprints-of-fisheries.jpg</t>
+  </si>
+  <si>
+    <t>Report-Alternative-fuels-and-propulsion-systems-for-fishing-vessels.jpg</t>
+  </si>
+  <si>
+    <t>Report-Equipment-and-systems-onboard-fishing-vessels-1-723x1024.jpg</t>
+  </si>
+  <si>
+    <t>Report-Implementation-of-natural-refrigerants-on-cruise-ships-723x1024.jpg</t>
+  </si>
+  <si>
+    <t>Report-Review-of-environmental-indices-in-the-maritime-sector-724x1024.jpg</t>
+  </si>
+  <si>
+    <t>Paper-Innovative-refrigeration-concept-for-passanger-ships-721x1024.jpg</t>
+  </si>
+  <si>
+    <t>Report-Industry-practices-for-sharing-sustainability-information-in-the-Norwegian-fisheries-supply-chains-722x1024.jpg</t>
+  </si>
+  <si>
+    <t>Paper-CO2-refrigeration-system-design-and-optimization-for-LNG-driven-cruise-ships-722x1024.jpg</t>
+  </si>
+  <si>
+    <t>Master-Energy-efficient-and-climate-friendly-cooling-freezing-and-heating-onboard-fishing-vessels.jpg</t>
+  </si>
+  <si>
+    <t>Master-Energy-efficient-CO2-refrigeration-units-for-fishing-vessels.jpg</t>
+  </si>
+  <si>
+    <t>Master-Thermal-energy-recovery-and-storage-for-a-hydrogen-fuel-cell-and-battery-driven-cruise-ship-724x1024.jpg</t>
+  </si>
+  <si>
+    <t>master-Development-of-CO2-refrigeration-systems-and-TES-for-cruise-ships-734x1024.jpg</t>
+  </si>
+  <si>
+    <t>Master-Integrated-thermal-system-for-hydrogen-and-ammonia-driven-cruise-ship-735x1024.jpg</t>
+  </si>
+  <si>
+    <t>Master-Energy-Use-and-Energy-Efficiency-Potential-on-Passenger-Ships-723x1024.jpg</t>
   </si>
 </sst>
 </file>
@@ -261,12 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,322 +666,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2490337C-9606-43DA-A797-BEC339E54AEF}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3">
+        <v>44616</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3">
+        <v>44096</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3">
+        <v>44104</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3">
+        <v>44449</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3">
+        <v>44662</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43557</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43997</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44362</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
+      <c r="B10" s="3">
+        <v>44918</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="B11" s="3">
+        <v>44553</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
+      <c r="B12" s="3">
+        <v>44725</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3">
+        <v>44306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44727</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44727</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44727</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44727</v>
+      </c>
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44362</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
